--- a/Projects/US Healthcare/Enrollment Mapping Document - US Healthcare Bootcamp.xlsx
+++ b/Projects/US Healthcare/Enrollment Mapping Document - US Healthcare Bootcamp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumedh.Pawar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumedh.Pawar\tutorial\Bootcamp-Tasks\Projects\US Healthcare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96925CDD-DD8C-481F-9AA4-F2871B7CA51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A08D0640-57D5-433C-9E31-B80CBAC4367D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{DCFCB83B-306A-C44E-BEF9-419E09E46EB5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCFCB83B-306A-C44E-BEF9-419E09E46EB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Target Table Layout" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="244">
   <si>
     <t>MEMBER_ID</t>
   </si>
@@ -245,12 +245,6 @@
     <t>Left</t>
   </si>
   <si>
-    <t>Gender_Crosswalk</t>
-  </si>
-  <si>
-    <t>Demographics.Gender = Gender_Crosswalk.Code</t>
-  </si>
-  <si>
     <t>Bootcamp.Demographics_Mock_Data</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>Abacus_Member_ID</t>
   </si>
   <si>
-    <t>Abacus universal ID generated and maintained by Scrub and used to identify a member across all services[ Proposed : Subscriber_ID + Member_Seq + Gender + DOB]</t>
-  </si>
-  <si>
     <t>Member ID to display on the application, as sent by client</t>
   </si>
   <si>
@@ -467,9 +458,6 @@
     <t>Member Country, 2 digit Country Code</t>
   </si>
   <si>
-    <t>Member@gmail.com</t>
-  </si>
-  <si>
     <t>true, false</t>
   </si>
   <si>
@@ -518,191 +506,12 @@
     <t>sample_table</t>
   </si>
   <si>
-    <t>relationship_crosswalk</t>
-  </si>
-  <si>
     <t>enrollment_mock_data</t>
   </si>
   <si>
-    <t>group_crosswalk</t>
-  </si>
-  <si>
-    <t>enrollment_mock_data.GROUP_ID == group_crosswalk.GROUP_ID</t>
-  </si>
-  <si>
-    <t>sample_table.RELATIONSHIP == relationship_crosswalk.Rollup_Code , 'left'</t>
-  </si>
-  <si>
     <t>sample_table_2</t>
   </si>
   <si>
-    <t>coverage_crosswalk</t>
-  </si>
-  <si>
-    <t>sample_table_2.COVERAGE_TYPE == coverage_crosswalk.Coverage_ID</t>
-  </si>
-  <si>
-    <t>sample_table_2.COVERAGE_TYPE == coverage_crosswalk.Coverage_ID,'left'</t>
-  </si>
-  <si>
-    <t>plan_crosswalk</t>
-  </si>
-  <si>
-    <t>sample_table_2.PLAN_ID == plan_crosswalk.PLAN_ID</t>
-  </si>
-  <si>
-    <r>
-      <t>F.col(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GENDER"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>) == F.col(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"gender_Code"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>sample_table.RELATIONSHIP == relationship_crosswalk.Relationship_Code,'left').filter(~((F.col("Gender_Code") == "F") &amp; (F.col("Relationship_Description") == "Father")))</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">on = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"GROUP_ID"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, how=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'left'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">on = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"PLAN_ID"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, how=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'left'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">on = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"MEMBER_ID"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, how = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFC72E0F"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>'left'</t>
-    </r>
-  </si>
-  <si>
-    <t>Concatenate field ( Last 3 digit of employee_id, member seqence, gender code, day from DOB)</t>
-  </si>
-  <si>
     <t>employee_id , DOB, Gender</t>
   </si>
   <si>
@@ -913,13 +722,58 @@
     <t>Same member_id for multiple names</t>
   </si>
   <si>
-    <t>sample_table_1.MEMBER_ID == sample_table_2.MEMBER_ID</t>
-  </si>
-  <si>
     <t>gender_crosswalk, Relationship_Crosswalk</t>
   </si>
   <si>
     <t>Gender_Description, Relationship_Description</t>
+  </si>
+  <si>
+    <t>Abacus universal ID generated and maintained by Scrub and used to identify a member across all services[ Proposed : Subscriber_ID [0:2]+Member_ID [-2:]+ First_Name[0:2] + Gender + DOB[0:2]</t>
+  </si>
+  <si>
+    <t>enrollment+demographics</t>
+  </si>
+  <si>
+    <t>enrollment_mock.join(demographics_mock,how="left",on="MEMBER_id")</t>
+  </si>
+  <si>
+    <t>"+ gender_crosswalk"</t>
+  </si>
+  <si>
+    <t>joined_df["GENDER"]==gender_crosswalk["Gender_Code"]</t>
+  </si>
+  <si>
+    <t>"+ group_crosswalk"</t>
+  </si>
+  <si>
+    <t>"+ relationship_crosswalk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> joined_df["GROUP_ID"]==group_crosswalk["GROUP_ID_CROSSWALK"]</t>
+  </si>
+  <si>
+    <t>joined_df["RELATIONSHIP"]==relationship_crosswalk["Relationship_Rollup_Code"]</t>
+  </si>
+  <si>
+    <t>"+ plan_crosswalk"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> joined_df["PLAN_ID"]==plan_crosswalk["crosswalk_plan_id"]</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>"+coverage_crosswalk"</t>
+  </si>
+  <si>
+    <t>joined_df["COVERAGE_TYPE"]==coverage_crosswalk["COVERAGE_CROSSWALK_COVERAGE_ID"]</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Concatenate field ( Last 2digit of (subscriber_id, member_id),first2_chars of first name ,day from DOB)</t>
   </si>
 </sst>
 </file>
@@ -929,9 +783,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -972,12 +833,6 @@
       <family val="3"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FFC72E0F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1004,8 +859,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,8 +902,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1149,109 +1017,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2103,9 +1982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3575D5F9-9329-4553-9A1F-184431E0650A}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D57:D58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2119,21 +1998,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -2142,409 +2021,409 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="36" t="s">
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>75</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="3">
+        <v>37249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="39">
+      <c r="E16" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
-        <v>3</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="36">
+      <c r="E19" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
-        <v>4</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="36">
+      <c r="E20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
-        <v>5</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="36">
-        <v>75</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
-        <v>6</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="36">
-        <v>75</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
-        <v>7</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="36">
-        <v>75</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
-        <v>8</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
-        <v>9</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="36">
-        <v>10</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
-        <v>10</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="36">
-        <v>10</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
-        <v>11</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="36">
-        <v>10</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="44">
-        <v>37249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
-        <v>12</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="36">
-        <v>10</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
-        <v>13</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="36">
-        <v>20</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
-        <v>14</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="36">
-        <v>2</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
-        <v>15</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="36">
-        <v>100</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
-        <v>16</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="36">
-        <v>100</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
-        <v>17</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="36">
-        <v>20</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
-        <v>18</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="36">
-        <v>20</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="39">
-        <v>19</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="39">
-        <v>50</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
-        <v>20</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="36">
-        <v>10</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="46">
+      <c r="E22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="36">
         <v>7745677455</v>
       </c>
     </row>
@@ -2562,510 +2441,510 @@
         <v>20</v>
       </c>
       <c r="E23" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="37">
+        <v>22</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="37">
+        <v>10</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="37">
+        <v>7030259551</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="37">
+        <v>23</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="37">
+        <v>10</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="37">
+        <v>7030259551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>24</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="37">
+        <v>10</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="37">
+        <v>7030259551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <v>25</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="37">
+        <v>100</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <v>26</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>27</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="37">
+        <v>10</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
+        <v>28</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="37">
+        <v>100</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
-        <v>22</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="47">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>20</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>50</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
+        <v>31</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="37">
+        <v>20</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="39" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="37">
+        <v>32</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="37">
+        <v>50</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="47">
-        <v>7030259551</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="47">
-        <v>23</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="47">
+      <c r="E35" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>30</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E25" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" s="47">
-        <v>7030259551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
-        <v>24</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="47">
+      <c r="E37" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>30</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>50</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2">
         <v>10</v>
       </c>
-      <c r="E26" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="47">
-        <v>7030259551</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="47">
-        <v>25</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="47">
+      <c r="E40" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>10</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>10</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>10</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
+      <c r="E45" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="47">
-        <v>26</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="47">
-        <v>1</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="47">
-        <v>27</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="47" t="s">
+      <c r="F45" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>100</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="47">
+      <c r="D48" s="2">
         <v>10</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
-        <v>28</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="47">
-        <v>100</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
-        <v>29</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="36">
-        <v>20</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
-        <v>30</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="36">
-        <v>50</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="47">
-        <v>31</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="47">
-        <v>20</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="49" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
-        <v>32</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="47">
-        <v>50</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
-        <v>33</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="36">
-        <v>10</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="36">
-        <v>34</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="36">
-        <v>30</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="36">
-        <v>35</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="36">
-        <v>10</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="36">
-        <v>36</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="36">
-        <v>30</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="36">
-        <v>37</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="36">
-        <v>50</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="36" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="36">
-        <v>38</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="36">
-        <v>10</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="36">
-        <v>39</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="36">
-        <v>10</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F41" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="36">
-        <v>40</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="36">
-        <v>10</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="36">
-        <v>41</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="36">
-        <v>10</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="36">
-        <v>42</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="36">
-        <v>10</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="36">
-        <v>43</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="36">
-        <v>10</v>
-      </c>
-      <c r="E45" s="38" t="s">
+      <c r="E48" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="36">
-        <v>44</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="36">
-        <v>20</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="36">
-        <v>45</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="36">
-        <v>100</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="36" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="36">
-        <v>46</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="36">
-        <v>10</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>132</v>
+      <c r="F48" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +2955,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" xr:uid="{5DCAA367-1381-452A-AD4A-2582E20E6C5C}"/>
+    <hyperlink ref="F27" r:id="rId1" display="Member@gmail.com" xr:uid="{5DCAA367-1381-452A-AD4A-2582E20E6C5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3101,13 +2980,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -3191,38 +3070,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3230,10 +3109,10 @@
       <c r="A3" s="14"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>3</v>
@@ -3245,16 +3124,16 @@
     </row>
     <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>174</v>
+        <v>156</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>243</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>3</v>
@@ -3266,13 +3145,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>177</v>
+      <c r="C5" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>38</v>
@@ -3284,18 +3163,18 @@
         <v>20</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>181</v>
+        <v>161</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>17</v>
@@ -3310,13 +3189,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>18</v>
@@ -3331,13 +3210,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>19</v>
@@ -3352,13 +3231,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>20</v>
@@ -3371,30 +3250,30 @@
       </c>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" s="32" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
+    <row r="10" spans="1:7" s="28" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="25">
+      <c r="E10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="21">
         <v>10</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>43</v>
@@ -3409,13 +3288,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>21</v>
@@ -3430,13 +3309,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>22</v>
@@ -3451,13 +3330,13 @@
     </row>
     <row r="14" spans="1:7" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>23</v>
@@ -3468,19 +3347,19 @@
       <c r="F14" s="14">
         <v>10</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>243</v>
+      <c r="G14" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>24</v>
@@ -3495,13 +3374,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>197</v>
-      </c>
       <c r="C16" s="14" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>44</v>
@@ -3516,13 +3395,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>32</v>
@@ -3537,13 +3416,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>33</v>
@@ -3558,13 +3437,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>34</v>
@@ -3579,13 +3458,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>35</v>
@@ -3600,13 +3479,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>36</v>
@@ -3621,13 +3500,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>37</v>
@@ -3644,7 +3523,7 @@
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>45</v>
@@ -3661,7 +3540,7 @@
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>52</v>
@@ -3673,14 +3552,14 @@
         <v>10</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>53</v>
@@ -3692,14 +3571,14 @@
         <v>10</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>54</v>
@@ -3711,14 +3590,14 @@
         <v>10</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>55</v>
@@ -3730,14 +3609,14 @@
         <v>100</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>58</v>
@@ -3749,14 +3628,14 @@
         <v>1</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>60</v>
@@ -3768,14 +3647,14 @@
         <v>10</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>61</v>
@@ -3787,18 +3666,18 @@
         <v>100</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>25</v>
@@ -3813,13 +3692,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>26</v>
@@ -3836,7 +3715,7 @@
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>56</v>
@@ -3848,14 +3727,14 @@
         <v>20</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>57</v>
@@ -3867,18 +3746,18 @@
         <v>50</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>27</v>
@@ -3893,13 +3772,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>28</v>
@@ -3914,13 +3793,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>29</v>
@@ -3935,13 +3814,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>30</v>
@@ -3956,13 +3835,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>39</v>
@@ -3977,13 +3856,13 @@
     </row>
     <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>233</v>
+        <v>212</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>46</v>
@@ -3998,13 +3877,13 @@
     </row>
     <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>234</v>
+        <v>213</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>215</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>47</v>
@@ -4019,13 +3898,13 @@
     </row>
     <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>235</v>
+        <v>212</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>48</v>
@@ -4040,13 +3919,13 @@
     </row>
     <row r="43" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>236</v>
+        <v>213</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>217</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>49</v>
@@ -4061,13 +3940,13 @@
     </row>
     <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>237</v>
+        <v>212</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>50</v>
@@ -4082,34 +3961,34 @@
     </row>
     <row r="45" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F45" s="29">
+      <c r="F45" s="25">
         <v>10</v>
       </c>
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>31</v>
@@ -4126,7 +4005,7 @@
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>40</v>
@@ -4143,7 +4022,7 @@
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>41</v>
@@ -4170,19 +4049,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803808C-54B3-EA4C-954C-34E0C504A7E8}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.59765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="25.796875" customWidth="1"/>
+    <col min="4" max="4" width="75.69921875" style="18" customWidth="1"/>
     <col min="5" max="5" width="60.19921875" customWidth="1"/>
     <col min="6" max="6" width="56.19921875" customWidth="1"/>
   </cols>
@@ -4192,7 +4071,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>63</v>
@@ -4209,111 +4088,114 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>169</v>
-      </c>
+      <c r="C2" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="26"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>157</v>
+    <row r="3" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="22"/>
+      <c r="C3" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>171</v>
-      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>166</v>
-      </c>
+      <c r="C5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="26"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>172</v>
-      </c>
+      <c r="C6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="26"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="24"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="45"/>
+      <c r="D10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="44"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
